--- a/data/stat probs/luka doncic stat probs - stat.xlsx
+++ b/data/stat probs/luka doncic stat probs - stat.xlsx
@@ -684,102 +684,102 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob over</t>
+          <t>mia 2023 regular prob over</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob under</t>
+          <t>mia 2023 regular prob under</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob over</t>
+          <t>mia 2023 full prob over</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob under</t>
+          <t>mia 2023 full prob under</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob over</t>
+          <t>1 before 2023 regular prob over</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob under</t>
+          <t>1 before 2023 regular prob under</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob over</t>
+          <t>1 before 2023 full prob over</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob under</t>
+          <t>1 before 2023 full prob under</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob over</t>
+          <t>phi 2023 regular prob over</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob under</t>
+          <t>phi 2023 regular prob under</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob over</t>
+          <t>phi 2023 full prob over</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob under</t>
+          <t>phi 2023 full prob under</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob over</t>
+          <t>ind 2023 regular prob over</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob under</t>
+          <t>ind 2023 regular prob under</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob over</t>
+          <t>ind 2023 full prob over</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob under</t>
+          <t>ind 2023 full prob under</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob over</t>
+          <t>mon 2023 regular prob over</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob under</t>
+          <t>mon 2023 regular prob under</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob over</t>
+          <t>mon 2023 full prob over</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob under</t>
+          <t>mon 2023 full prob under</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
@@ -1411,580 +1411,580 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CQ2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CS2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EG2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ES2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13283,16 +13283,16 @@
         <v>0</v>
       </c>
       <c r="BO22" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ22" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS22" t="n">
         <v>100</v>
@@ -13867,16 +13867,16 @@
         <v>0</v>
       </c>
       <c r="BO23" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ23" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS23" t="n">
         <v>100</v>
@@ -14451,16 +14451,16 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ24" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS24" t="n">
         <v>100</v>
@@ -14987,16 +14987,16 @@
         <v>57</v>
       </c>
       <c r="AY25" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA25" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC25" t="n">
         <v>100</v>
@@ -15035,16 +15035,16 @@
         <v>0</v>
       </c>
       <c r="BO25" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ25" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS25" t="n">
         <v>100</v>
@@ -15571,16 +15571,16 @@
         <v>57</v>
       </c>
       <c r="AY26" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC26" t="n">
         <v>100</v>
@@ -15619,16 +15619,16 @@
         <v>0</v>
       </c>
       <c r="BO26" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ26" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS26" t="n">
         <v>100</v>
@@ -16155,64 +16155,64 @@
         <v>57</v>
       </c>
       <c r="AY27" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ27" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB27" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE27" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG27" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH27" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI27" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ27" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL27" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BN27" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BO27" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ27" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS27" t="n">
         <v>100</v>
@@ -16739,40 +16739,40 @@
         <v>71</v>
       </c>
       <c r="AY28" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA28" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE28" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG28" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH28" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI28" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ28" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK28" t="n">
         <v>50</v>
@@ -16787,16 +16787,16 @@
         <v>50</v>
       </c>
       <c r="BO28" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP28" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ28" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR28" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS28" t="n">
         <v>100</v>
@@ -17323,40 +17323,40 @@
         <v>71</v>
       </c>
       <c r="AY29" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AZ29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BC29" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE29" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG29" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH29" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI29" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ29" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK29" t="n">
         <v>50</v>
@@ -17371,16 +17371,16 @@
         <v>50</v>
       </c>
       <c r="BO29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS29" t="n">
         <v>100</v>
@@ -17907,40 +17907,40 @@
         <v>86</v>
       </c>
       <c r="AY30" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AZ30" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA30" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="BB30" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE30" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG30" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH30" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI30" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ30" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK30" t="n">
         <v>50</v>
@@ -17955,16 +17955,16 @@
         <v>50</v>
       </c>
       <c r="BO30" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP30" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ30" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR30" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS30" t="n">
         <v>100</v>
@@ -18491,40 +18491,40 @@
         <v>86</v>
       </c>
       <c r="AY31" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AZ31" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA31" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="BB31" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE31" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG31" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH31" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI31" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ31" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK31" t="n">
         <v>50</v>
@@ -18539,16 +18539,16 @@
         <v>50</v>
       </c>
       <c r="BO31" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP31" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ31" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR31" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS31" t="n">
         <v>100</v>
@@ -19075,40 +19075,40 @@
         <v>86</v>
       </c>
       <c r="AY32" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AZ32" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BA32" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="BB32" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BC32" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BE32" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BF32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BG32" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BH32" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BI32" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BJ32" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK32" t="n">
         <v>50</v>
@@ -19123,16 +19123,16 @@
         <v>50</v>
       </c>
       <c r="BO32" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ32" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS32" t="n">
         <v>100</v>
@@ -19659,40 +19659,40 @@
         <v>86</v>
       </c>
       <c r="AY33" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AZ33" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="BB33" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BE33" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BG33" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BH33" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BI33" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BJ33" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK33" t="n">
         <v>50</v>
@@ -19707,16 +19707,16 @@
         <v>50</v>
       </c>
       <c r="BO33" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ33" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS33" t="n">
         <v>100</v>
@@ -20243,40 +20243,40 @@
         <v>86</v>
       </c>
       <c r="AY34" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AZ34" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BA34" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="BB34" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BE34" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BG34" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BH34" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BI34" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BJ34" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BK34" t="n">
         <v>50</v>
@@ -20291,16 +20291,16 @@
         <v>50</v>
       </c>
       <c r="BO34" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP34" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ34" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR34" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS34" t="n">
         <v>100</v>
@@ -20827,40 +20827,40 @@
         <v>86</v>
       </c>
       <c r="AY35" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AZ35" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BA35" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="BB35" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BE35" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BG35" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BH35" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BI35" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BJ35" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BK35" t="n">
         <v>50</v>
@@ -20875,16 +20875,16 @@
         <v>50</v>
       </c>
       <c r="BO35" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BP35" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BQ35" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR35" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BS35" t="n">
         <v>100</v>
@@ -21411,40 +21411,40 @@
         <v>86</v>
       </c>
       <c r="AY36" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="AZ36" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BA36" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BE36" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="BF36" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BG36" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH36" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI36" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ36" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK36" t="n">
         <v>50</v>
@@ -21995,40 +21995,40 @@
         <v>86</v>
       </c>
       <c r="AY37" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ37" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA37" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB37" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC37" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD37" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE37" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF37" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG37" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH37" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI37" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ37" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK37" t="n">
         <v>50</v>
@@ -22579,40 +22579,40 @@
         <v>86</v>
       </c>
       <c r="AY38" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ38" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA38" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB38" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC38" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD38" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE38" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF38" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG38" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH38" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI38" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ38" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK38" t="n">
         <v>50</v>
@@ -23163,40 +23163,40 @@
         <v>86</v>
       </c>
       <c r="AY39" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ39" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA39" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB39" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC39" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD39" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE39" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF39" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG39" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH39" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI39" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ39" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK39" t="n">
         <v>50</v>
@@ -23211,16 +23211,16 @@
         <v>50</v>
       </c>
       <c r="BO39" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="BP39" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BQ39" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="BR39" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BS39" t="n">
         <v>50</v>
@@ -23747,40 +23747,40 @@
         <v>86</v>
       </c>
       <c r="AY40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ40" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB40" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC40" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD40" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE40" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF40" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG40" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH40" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI40" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ40" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK40" t="n">
         <v>50</v>
@@ -23795,16 +23795,16 @@
         <v>50</v>
       </c>
       <c r="BO40" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="BP40" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BQ40" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="BR40" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BS40" t="n">
         <v>50</v>
@@ -24331,40 +24331,40 @@
         <v>86</v>
       </c>
       <c r="AY41" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ41" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA41" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB41" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC41" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD41" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE41" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF41" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG41" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH41" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI41" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ41" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK41" t="n">
         <v>50</v>
@@ -24379,16 +24379,16 @@
         <v>50</v>
       </c>
       <c r="BO41" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BP41" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BQ41" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BR41" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BS41" t="n">
         <v>50</v>
@@ -24915,64 +24915,64 @@
         <v>86</v>
       </c>
       <c r="AY42" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ42" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA42" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB42" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC42" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD42" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE42" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF42" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG42" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH42" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI42" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ42" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP42" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR42" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS42" t="n">
         <v>50</v>
@@ -25499,64 +25499,64 @@
         <v>86</v>
       </c>
       <c r="AY43" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AZ43" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BA43" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BB43" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BC43" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BD43" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BE43" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BF43" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BG43" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH43" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI43" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ43" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK43" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM43" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP43" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR43" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS43" t="n">
         <v>0</v>
@@ -26083,64 +26083,64 @@
         <v>86</v>
       </c>
       <c r="AY44" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AZ44" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BA44" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BB44" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BC44" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BD44" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BE44" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BF44" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BG44" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH44" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI44" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ44" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP44" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR44" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS44" t="n">
         <v>0</v>
@@ -26667,16 +26667,16 @@
         <v>86</v>
       </c>
       <c r="AY45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB45" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC45" t="n">
         <v>0</v>
@@ -26715,16 +26715,16 @@
         <v>100</v>
       </c>
       <c r="BO45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP45" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR45" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS45" t="n">
         <v>0</v>
@@ -27251,16 +27251,16 @@
         <v>86</v>
       </c>
       <c r="AY46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC46" t="n">
         <v>0</v>
@@ -27299,16 +27299,16 @@
         <v>100</v>
       </c>
       <c r="BO46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP46" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR46" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS46" t="n">
         <v>0</v>
@@ -27883,16 +27883,16 @@
         <v>100</v>
       </c>
       <c r="BO47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP47" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR47" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS47" t="n">
         <v>0</v>
@@ -28467,16 +28467,16 @@
         <v>100</v>
       </c>
       <c r="BO48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP48" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR48" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS48" t="n">
         <v>0</v>
@@ -29051,16 +29051,16 @@
         <v>100</v>
       </c>
       <c r="BO49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP49" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR49" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS49" t="n">
         <v>0</v>
@@ -29635,16 +29635,16 @@
         <v>100</v>
       </c>
       <c r="BO50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP50" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR50" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS50" t="n">
         <v>0</v>
@@ -30219,16 +30219,16 @@
         <v>100</v>
       </c>
       <c r="BO51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP51" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR51" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS51" t="n">
         <v>0</v>
@@ -30803,16 +30803,16 @@
         <v>100</v>
       </c>
       <c r="BO52" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP52" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ52" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR52" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS52" t="n">
         <v>0</v>
@@ -31387,16 +31387,16 @@
         <v>100</v>
       </c>
       <c r="BO53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP53" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR53" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS53" t="n">
         <v>0</v>
@@ -31971,16 +31971,16 @@
         <v>100</v>
       </c>
       <c r="BO54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP54" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR54" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS54" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>100</v>
       </c>
       <c r="BO55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP55" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR55" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BS55" t="n">
         <v>0</v>
@@ -37294,102 +37294,102 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob over</t>
+          <t>mia 2023 regular prob over</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob under</t>
+          <t>mia 2023 regular prob under</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob over</t>
+          <t>mia 2023 full prob over</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob under</t>
+          <t>mia 2023 full prob under</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob over</t>
+          <t>1 before 2023 regular prob over</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob under</t>
+          <t>1 before 2023 regular prob under</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob over</t>
+          <t>1 before 2023 full prob over</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob under</t>
+          <t>1 before 2023 full prob under</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob over</t>
+          <t>phi 2023 regular prob over</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob under</t>
+          <t>phi 2023 regular prob under</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob over</t>
+          <t>phi 2023 full prob over</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob under</t>
+          <t>phi 2023 full prob under</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob over</t>
+          <t>ind 2023 regular prob over</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob under</t>
+          <t>ind 2023 regular prob under</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob over</t>
+          <t>ind 2023 full prob over</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob under</t>
+          <t>ind 2023 full prob under</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob over</t>
+          <t>mon 2023 regular prob over</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob under</t>
+          <t>mon 2023 regular prob under</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob over</t>
+          <t>mon 2023 full prob over</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob under</t>
+          <t>mon 2023 full prob under</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
@@ -38021,580 +38021,580 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ES2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40501,16 +40501,16 @@
         <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>100</v>
@@ -41085,16 +41085,16 @@
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
         <v>100</v>
@@ -41109,28 +41109,28 @@
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BI7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BK7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BN7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>100</v>
@@ -41669,16 +41669,16 @@
         <v>43</v>
       </c>
       <c r="AY8" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>100</v>
@@ -41693,28 +41693,28 @@
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BI8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BK8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BN8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>100</v>
@@ -42253,64 +42253,64 @@
         <v>43</v>
       </c>
       <c r="AY9" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE9" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG9" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BH9" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BI9" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BJ9" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BK9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BL9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BN9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BP9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BQ9" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BS9" t="n">
         <v>100</v>
@@ -42837,40 +42837,40 @@
         <v>71</v>
       </c>
       <c r="AY10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AZ10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BE10" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BG10" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BH10" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BI10" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BJ10" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK10" t="n">
         <v>50</v>
@@ -43421,64 +43421,64 @@
         <v>71</v>
       </c>
       <c r="AY11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AZ11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BE11" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BG11" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BH11" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BI11" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BJ11" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BP11" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BR11" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BS11" t="n">
         <v>100</v>
@@ -44005,64 +44005,64 @@
         <v>86</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AZ12" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BE12" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BG12" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BH12" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BI12" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BJ12" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="BK12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BP12" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BR12" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BS12" t="n">
         <v>100</v>
@@ -44589,40 +44589,40 @@
         <v>100</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AZ13" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BB13" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BC13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF13" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BI13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -44637,16 +44637,16 @@
         <v>100</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BP13" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BR13" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BS13" t="n">
         <v>50</v>
@@ -45173,40 +45173,40 @@
         <v>100</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AZ14" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BB14" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BC14" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD14" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BE14" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BF14" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BG14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BI14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -45221,16 +45221,16 @@
         <v>100</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BP14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BR14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BS14" t="n">
         <v>50</v>
@@ -45769,28 +45769,28 @@
         <v>100</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF15" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BI15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -46353,28 +46353,28 @@
         <v>100</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF16" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BI16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -46937,28 +46937,28 @@
         <v>100</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF17" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BI17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BK17" t="n">
         <v>0</v>
@@ -47521,28 +47521,28 @@
         <v>100</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF18" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BI18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BJ18" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BK18" t="n">
         <v>0</v>
@@ -51128,102 +51128,102 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob over</t>
+          <t>mia 2023 regular prob over</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob under</t>
+          <t>mia 2023 regular prob under</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob over</t>
+          <t>mia 2023 full prob over</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob under</t>
+          <t>mia 2023 full prob under</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob over</t>
+          <t>1 before 2023 regular prob over</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob under</t>
+          <t>1 before 2023 regular prob under</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob over</t>
+          <t>1 before 2023 full prob over</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob under</t>
+          <t>1 before 2023 full prob under</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob over</t>
+          <t>phi 2023 regular prob over</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob under</t>
+          <t>phi 2023 regular prob under</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob over</t>
+          <t>phi 2023 full prob over</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob under</t>
+          <t>phi 2023 full prob under</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob over</t>
+          <t>ind 2023 regular prob over</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob under</t>
+          <t>ind 2023 regular prob under</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob over</t>
+          <t>ind 2023 full prob over</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob under</t>
+          <t>ind 2023 full prob under</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob over</t>
+          <t>mon 2023 regular prob over</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob under</t>
+          <t>mon 2023 regular prob under</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob over</t>
+          <t>mon 2023 full prob over</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob under</t>
+          <t>mon 2023 full prob under</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
@@ -51855,580 +51855,580 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CQ2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CS2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EG2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ES2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54919,16 +54919,16 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
         <v>100</v>
@@ -55503,16 +55503,16 @@
         <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AZ8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>100</v>
@@ -55551,16 +55551,16 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ8" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS8" t="n">
         <v>100</v>
@@ -56087,64 +56087,64 @@
         <v>43</v>
       </c>
       <c r="AY9" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AZ9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE9" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG9" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BH9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BJ9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BP9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BR9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS9" t="n">
         <v>100</v>
@@ -56671,64 +56671,64 @@
         <v>57</v>
       </c>
       <c r="AY10" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AZ10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BC10" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BD10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BE10" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BF10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BG10" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BH10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="BJ10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BP10" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BR10" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="BS10" t="n">
         <v>100</v>
@@ -57255,52 +57255,52 @@
         <v>71</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD11" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BF11" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="BG11" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BH11" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BI11" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BJ11" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BK11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO11" t="n">
         <v>0</v>
@@ -57839,52 +57839,52 @@
         <v>71</v>
       </c>
       <c r="AY12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF12" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG12" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH12" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI12" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ12" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -58423,16 +58423,16 @@
         <v>71</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
@@ -58447,28 +58447,28 @@
         <v>100</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BH13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BJ13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
@@ -59007,16 +59007,16 @@
         <v>71</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
@@ -59031,28 +59031,28 @@
         <v>100</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BH14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BJ14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -62626,102 +62626,102 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob over</t>
+          <t>mia 2023 regular prob over</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 regular prob under</t>
+          <t>mia 2023 regular prob under</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob over</t>
+          <t>mia 2023 full prob over</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>sun 2023 full prob under</t>
+          <t>mia 2023 full prob under</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob over</t>
+          <t>1 before 2023 regular prob over</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 regular prob under</t>
+          <t>1 before 2023 regular prob under</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob over</t>
+          <t>1 before 2023 full prob over</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>mia 2023 full prob under</t>
+          <t>1 before 2023 full prob under</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob over</t>
+          <t>phi 2023 regular prob over</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 regular prob under</t>
+          <t>phi 2023 regular prob under</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob over</t>
+          <t>phi 2023 full prob over</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>1 before 2023 full prob under</t>
+          <t>phi 2023 full prob under</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob over</t>
+          <t>ind 2023 regular prob over</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 regular prob under</t>
+          <t>ind 2023 regular prob under</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob over</t>
+          <t>ind 2023 full prob over</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>phi 2023 full prob under</t>
+          <t>ind 2023 full prob under</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob over</t>
+          <t>mon 2023 regular prob over</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 regular prob under</t>
+          <t>mon 2023 regular prob under</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob over</t>
+          <t>mon 2023 full prob over</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>ind 2023 full prob under</t>
+          <t>mon 2023 full prob under</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
@@ -63353,40 +63353,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="O2" t="n">
         <v>100</v>
@@ -63413,340 +63413,340 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BE2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CQ2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CS2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="CU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE2" t="n">
         <v>100</v>
@@ -63761,172 +63761,172 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EK2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EM2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EQ2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="ES2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="EU2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EW2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FK2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FM2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FO2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FQ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FS2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="FY2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GA2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GC2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GE2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GG2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="GK2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64093,28 +64093,28 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BE3" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BG3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BH3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BJ3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>100</v>
@@ -64665,40 +64665,40 @@
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BE4" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BG4" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BH4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="BJ4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
         <v>100</v>
@@ -64713,16 +64713,16 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BQ4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS4" t="n">
         <v>100</v>
@@ -65249,40 +65249,40 @@
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AZ5" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BB5" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BC5" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BD5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BE5" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BF5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BG5" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="BH5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="BJ5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>100</v>
@@ -65297,16 +65297,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BP5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BQ5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BS5" t="n">
         <v>50</v>
@@ -65833,52 +65833,52 @@
         <v>71</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AZ6" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="BB6" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="BC6" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BD6" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BE6" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BF6" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BG6" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="BH6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="BJ6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BM6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BO6" t="n">
         <v>50</v>
@@ -66417,64 +66417,64 @@
         <v>100</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AZ7" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="BB7" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BC7" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BE7" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="BF7" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="BG7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH7" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ7" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BP7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BR7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BS7" t="n">
         <v>50</v>
@@ -67001,52 +67001,52 @@
         <v>100</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD8" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF8" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG8" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH8" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI8" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ8" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
@@ -67585,52 +67585,52 @@
         <v>100</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF9" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="BG9" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BH9" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BI9" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="BJ9" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="BK9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BM9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
